--- a/res/职业禁忌症关联.xlsx
+++ b/res/职业禁忌症关联.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tools\oh\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9693A747-A6B1-44F8-B01E-F07B4CC88AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF99870-7512-43BD-B599-48D7CE7908C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="557">
   <si>
     <t>title_code</t>
   </si>
@@ -255,9 +255,6 @@
     <t>5.19.1.1</t>
   </si>
   <si>
-    <t>血常规检出有如下异常者</t>
-  </si>
-  <si>
     <t>造血系统疾病</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>5.23.1.1</t>
   </si>
   <si>
-    <t>严重慢性皮肤疾患</t>
-  </si>
-  <si>
     <t>5.23.2.1</t>
   </si>
   <si>
@@ -852,27 +846,6 @@
     <t>职业机动车驾驶作业</t>
   </si>
   <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>远视力（对数视力表）</t>
-  </si>
-  <si>
-    <t>小型车机动车驾驶员</t>
-  </si>
-  <si>
-    <t>听力</t>
-  </si>
-  <si>
-    <t>血压</t>
-  </si>
-  <si>
-    <t>深视力</t>
-  </si>
-  <si>
-    <t>暗适应</t>
-  </si>
-  <si>
     <t>复视、立体盲、严重视野缺损</t>
   </si>
   <si>
@@ -912,9 +885,6 @@
     <t>在岗期间健康检查</t>
   </si>
   <si>
-    <t>小型机动车驾驶员</t>
-  </si>
-  <si>
     <t>吸食、注射毒品、长期服用依赖性精神药品成瘾尚未戒除者</t>
   </si>
   <si>
@@ -1023,668 +993,703 @@
     <t>影响功能的口腔及颞下颚关节慢性进行性疾病</t>
   </si>
   <si>
+    <t>铅及其无机化合物（CASNo：7439-92-1）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中度贫血；b)卟啉病；c)多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>a)中度贫血；b)卟啉病；c)多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性铅中毒（见GBZ37）。b)职业禁忌证：同5.1.1.1。</t>
+  </si>
+  <si>
+    <t>四乙基铅（CASNo：78-00-2）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病。</t>
+  </si>
+  <si>
+    <t>汞及其无机化合物（CASNo：7439-97-6）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病；c)慢性肾脏疾病。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病；c)慢性肾脏疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性汞中毒（见GBZ89）；b)职业禁忌证：同5.3.1.1。</t>
+  </si>
+  <si>
+    <t>锰及其无机化合物（CASNo：7439-96-5）</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性锰中毒（见GBZ3）b)职业禁忌证：同5.4.1.1。</t>
+  </si>
+  <si>
+    <t>铍及其无机化台物(CASNo：7440-41-7)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动性肺结核；b)慢性阻塞性肺病；c)支气管哮喘；d)慢性间质性肺病；e)慢性皮肤溃疡。</t>
+  </si>
+  <si>
+    <t>a)活动性肺结核；b)慢性阻塞性肺病；c)支气管哮喘；d)慢性间质性肺病；e)慢性皮肤溃疡。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性慢性铍病(见GBZ67)；2)职业性铍接触性皮炎(见GBZ20)；镀溃疡(见GBZ62)。b)职业禁忌证：同5.5.1.1。</t>
+  </si>
+  <si>
+    <t>镉及其无机化合物(CASNo：7440-43-9)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肾脏疾病；b)骨质疏松症。</t>
+  </si>
+  <si>
+    <t>a)慢性肾脏疾病；b)骨质疏松症。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性镉中毒(见GBZ17)；b)职业禁忌证：同5.6.1.1。</t>
+  </si>
+  <si>
+    <t>铬及其无机化合物(CASNo：7440-47-3)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性皮肤溃疡；b)萎缩性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)慢性皮肤溃疡；b)萎缩性鼻炎。</t>
+  </si>
+  <si>
+    <t>氧化锌(CASNo:1314-13-2)</t>
+  </si>
+  <si>
+    <t>砷(CASNo:7440-38-2)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肝病；b)多发性周围神经病；c)严重慢性皮肤疾病。</t>
+  </si>
+  <si>
+    <t>a)慢性肝病；b)多发性周围神经病；c)严重慢性皮肤疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性慢性砷中毒(见GBZ83)；2)职业性砷所致肺癌、皮肤癌（见GBZ94）。b)职业禁忌证：同5.9.1.1。</t>
+  </si>
+  <si>
+    <t>砷化氢(砷化三氢，CASNo:7784-42-l)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肾脏疾病；b)血清葡萄糖-6-磷酸脱氢酶缺乏症。</t>
+  </si>
+  <si>
+    <t>a)慢性肾脏疾病；b)血清葡萄糖-6-磷酸脱氢酶缺乏症。</t>
+  </si>
+  <si>
+    <t>磷及其无机化合物(CASNo:7723-14-0)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)牙本质病变（不包括龋齿）；b)下颌骨疾病；c)慢性肝病。</t>
+  </si>
+  <si>
+    <t>a)牙本质病变（不包括龋齿）；b)下颌骨疾病；c)慢性肝病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性磷中毒(见GBZ81)；b)职业禁忌证：同5.11.1.1。</t>
+  </si>
+  <si>
+    <t>同5.11.1.1。</t>
+  </si>
+  <si>
+    <t>同5.11.1.1</t>
+  </si>
+  <si>
+    <t>磷化氢(CASNo:7803-51-2)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)支气管哮喘；c)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)支气管哮喘；c)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>钡化合物(氯化钡、硝酸钡、醋酸钡，CASNo:7440-39-3)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)钾代谢障碍；b)慢性器质性心脏病。</t>
+  </si>
+  <si>
+    <t>a)钾代谢障碍；b)慢性器质性心脏病。</t>
+  </si>
+  <si>
+    <t>钒及其无机化合物(CASNo:7440-62-2)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)钾代谢障碍。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)钾代谢障碍。</t>
+  </si>
+  <si>
+    <t>铊及其无机化合物(CASNo:7440-28-0)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)多发性周围神经病；b)视神经病或视网膜病。</t>
+  </si>
+  <si>
+    <t>a)多发性周围神经病；b)视神经病或视网膜病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性铊中毒(见GBZ226)；b)职业禁忌证：同5.16.1.1。</t>
+  </si>
+  <si>
+    <t>同5.16.1.1。</t>
+  </si>
+  <si>
+    <t>同5.16.1.1</t>
+  </si>
+  <si>
+    <t>羰基镍(CASNo:13463-39-3)</t>
+  </si>
+  <si>
+    <t>氟及其无机化合物(CASNo:7782-41-4)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)地方性氟病；b)骨关节疾病。</t>
+  </si>
+  <si>
+    <t>a)地方性氟病；b)骨关节疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：工业性氟病（见GBZ5）；b)职业禁忌证：同5.18.1.1。</t>
+  </si>
+  <si>
+    <t>同5.18.1.1。</t>
+  </si>
+  <si>
+    <t>同5.18.1.1</t>
+  </si>
+  <si>
+    <t>苯（接触工业甲苯、二甲苯参照执行，CASNo：71-43-2）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)血常规检出有如下异常者：1)白细胞计数低于4×l09/L或中性粒细胞低于2×109/L,2)血小板计数低于8×l010/L。；b)造血系统疾病。</t>
+  </si>
+  <si>
+    <t>a)血常规检出有如下异常者：1)白细胞计数低于4×l09/L或中性粒细胞低于2×109/L,2)血小板计数低于8×l010/L。；b)造血系统疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性慢性苯中毒（见GBZ68）；2)职业性苯所致白血病（见GBZ94）；b)职业禁忌证：造血系统疾病。</t>
+  </si>
+  <si>
+    <t>二硫化碳(CASNo:75-15-0)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)多发性周围神经病；c)视网膜病变。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)多发性周围神经病；c)视网膜病变。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性二硫化碳中毒（见GBZ4）；b)职业禁忌证：同5.20.1.1。</t>
+  </si>
+  <si>
+    <t>四氯化碳(CASNo:56-23-5)</t>
+  </si>
+  <si>
+    <t>同5.21.1，1。</t>
+  </si>
+  <si>
+    <t>甲醇(CASNo：67-56-1)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)视网膜及视神经病；b)中枢神经系统器质性疾病。</t>
+  </si>
+  <si>
+    <t>a)视网膜及视神经病；b)中枢神经系统器质性疾病。</t>
+  </si>
+  <si>
+    <t>汽油(CASNo:8006-61-9)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)严重慢性皮肤疾患；b)多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>a)严重慢性皮肤疾患；b)多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性慢性溶剂汽油中毒(见GBZ27)；2)汽油致职业性皮肤病(见GBZ18)；b)职业禁忌证：同5.23.1.1。</t>
+  </si>
+  <si>
+    <t>同5.23.1.1。</t>
+  </si>
+  <si>
+    <t>同5.23.1.1</t>
+  </si>
+  <si>
+    <t>溴甲烷(CASNo：74-83-9)</t>
+  </si>
+  <si>
+    <t>1，2-二氯乙烷(CASNo:107-06-2)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)慢性肝病。</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)慢性肝病。</t>
+  </si>
+  <si>
+    <t>正己烷(CASNo:110-54-3)</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性正己烷中毒（见GBZ84）；b)职业禁忌证：多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>三硝基甲苯(CASNo:118-96-7)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肝病；b)白内障。</t>
+  </si>
+  <si>
+    <t>a)慢性肝病；b)白内障。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性慢性三硝基甲苯中毒（见GBZ69）；2)职业性三硝基甲苯致白内障（见GBZ40）。b)职业禁忌证：同5.28.1.1。</t>
+  </si>
+  <si>
+    <t>同5.28.1.1。</t>
+  </si>
+  <si>
+    <t>同5.28.1.1</t>
+  </si>
+  <si>
+    <t>联苯胺(CASNo:92-87-5)</t>
+  </si>
+  <si>
+    <t>氯气(CASNo：7782-50-5)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性刺激性化学物致慢性阻塞性肺疾病(见GBZ/T237)；b)职业禁忌证：1)支气管哮喘；2)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>1)支气管哮喘；2)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>二氧化硫(CASNo:7446-09-5)</t>
+  </si>
+  <si>
+    <t>氮氧化物(CASNo：977099254)</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性刺激性化学物致慢性阻塞性肺疾病（见GBZ/T237）；b)职业禁忌证：1)支气管哮喘；2)慢性间质性肺病。</t>
+  </si>
+  <si>
+    <t>氨(CASNo:7664-41-7)</t>
+  </si>
+  <si>
+    <t>光气(CASNo：75-44-5)</t>
+  </si>
+  <si>
+    <t>甲醛(CASNo：50-00-0)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病；d)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病；d)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性哮喘(见GBZ57)；2)甲醛致职业性皮肤病(见GBZ18)；3)职业性刺激性化学物致慢性阻塞性肺疾病(见GBZ/T237)；b)职业禁忌证：1)慢性间质性肺病；2)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>1)慢性间质性肺病；2)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>一甲胺(CASNo：74-89-5)</t>
+  </si>
+  <si>
+    <t>一氧化碳(CASNo：630-08-0)</t>
+  </si>
+  <si>
+    <t>硫化氢(CASNo:7783-06-4)</t>
+  </si>
+  <si>
+    <t>氯乙烯(CASNo：75-01-4)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肝病；b)类风湿关节炎。</t>
+  </si>
+  <si>
+    <t>a)慢性肝病；b)类风湿关节炎。</t>
+  </si>
+  <si>
+    <t>三氯乙烯(CASNo:79-01-6)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肝病；b)过敏性皮肤病；c)中枢神经系统器质性疾病。</t>
+  </si>
+  <si>
+    <t>a)慢性肝病；b)过敏性皮肤病；c)中枢神经系统器质性疾病。</t>
+  </si>
+  <si>
+    <t>氯丙烯(CASNo:107-05-1)</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性氯丙烯中毒（见GBZ6）；b)职业禁忌证：多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>氯丁二烯(CASNo：126-99-8)</t>
+  </si>
+  <si>
+    <t>二甲基甲酰胺(CASNo：68-12-2)</t>
+  </si>
+  <si>
+    <t>氰及腈类化合物(CASNo:460-19-5)</t>
+  </si>
+  <si>
+    <t>酚（酚类化合物如甲酚、邻苯二酚、间苯二酚、对苯二酚等参照执行，CASNo：108-95-2）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肾脏疾病；b)严重的皮肤疾病。</t>
+  </si>
+  <si>
+    <t>a)慢性肾脏疾病；b)严重的皮肤疾病。</t>
+  </si>
+  <si>
+    <t>五氯酚(CASNo:87-86-5)</t>
+  </si>
+  <si>
+    <t>氯甲醚[双（氯甲基）醚参照执行，CASNo：107-30-2]</t>
+  </si>
+  <si>
+    <t>a)职业性氯甲醚所致肺癌(见GBZ94)；b)职业禁忌证：同5.49.1.1。</t>
+  </si>
+  <si>
+    <t>同5.49.1.1。</t>
+  </si>
+  <si>
+    <t>同5.49.1.1</t>
+  </si>
+  <si>
+    <t>丙烯酰胺(CASNo:79-06-l)</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性丙烯酰胺中毒（见GBZ50）；b)职业禁忌证：同5.50.1.1。</t>
+  </si>
+  <si>
+    <t>同5.50.1.1。</t>
+  </si>
+  <si>
+    <t>同5.50.1.1</t>
+  </si>
+  <si>
+    <t>偏二甲基肼(CASNo:57-14-7)</t>
+  </si>
+  <si>
+    <t>硫酸二甲酯(CASNo:77-78-1)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘。</t>
+  </si>
+  <si>
+    <t>a)慢性阻塞性肺病；b)支气管哮喘。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)全血胆碱酯酶活性明显低于正常者；b)严重的皮肤疾病。</t>
+  </si>
+  <si>
+    <t>a)全血胆碱酯酶活性明显低于正常者；b)严重的皮肤疾病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)严重的皮肤疾病；b)全血胆碱酯酶活性明显低于正常者。</t>
+  </si>
+  <si>
+    <t>a)严重的皮肤疾病；b)全血胆碱酯酶活性明显低于正常者。</t>
+  </si>
+  <si>
+    <t>拟除虫菊酯类(CASNo：28434-01-7)</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)牙酸蚀病；b)慢性阻塞性肺病；c)支气管哮喘。</t>
+  </si>
+  <si>
+    <t>a)牙酸蚀病；b)慢性阻塞性肺病；c)支气管哮喘。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性牙酸蚀病（见GBZ61）；2)职业性接触性皮炎(见GBZ20)；3)职业性哮喘（见GBZ57）。b)职业禁忌证：慢性阻塞性肺病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性哮喘（见GBZ57）。b)职业禁忌证：1)慢性阻塞性肺病；2)慢性间质性肺病；3)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>1)慢性阻塞性肺病；2)慢性间质性肺病；3)伴有气道高反应的过敏性鼻炎。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性焦炉逸散物所致肺癌（见GBZ94）；2)焦炉逸散物所致职业性皮肤病(见GBZ18)；b)职业禁忌证：同5.58.1.1。</t>
+  </si>
+  <si>
+    <t>同5.58.1.1。</t>
+  </si>
+  <si>
+    <t>同5.58.1.1</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病；</t>
+  </si>
+  <si>
+    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病；</t>
+  </si>
+  <si>
+    <t>a)职业病：矽肺（见GBZ70）b)职业禁忌证：同6.1.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病。</t>
+  </si>
+  <si>
+    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：煤工尘肺（见GBZ70）；b)职业禁忌证：同6.2.1.1。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)石棉肺（见GBZ70）；2)石棉所致肺癌、间皮瘤（见GBZ94）。b)职业禁忌证：同6.3.2.1。</t>
+  </si>
+  <si>
+    <t>a)职业病：炭黑尘肺（见GBZ70）；石墨尘肺（见GBZ70）；滑石尘肺（见GBZ70）；云母尘肺（见GBZ70）；水泥尘肺（见GBZ70）；铸工尘肺（见GBZ70）；陶工尘肺（见GBZ70）；铝尘肺（见GBZ70）；电焊工尘肺（见GBZ70）。b)职业禁忌证：同6.4.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)伴肺功能损害的疾病；</t>
+  </si>
+  <si>
+    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)伴肺功能损害的疾病；</t>
+  </si>
+  <si>
+    <t>a)职业病：棉尘病（见GBZ56）；b)职业禁忌证：同6.5.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)致喘物过敏和支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的心血管系统疾病。</t>
+  </si>
+  <si>
+    <t>a)致喘物过敏和支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的心血管系统疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性哮喘（见GBZ57）；2)职业性急性变应性肺泡炎（见GBZ60）b)职业禁忌证：伴肺功能损害的心血管系统疾病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；b)高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB；c)任一耳传导性耳聋，平均语频听力损伤≥41dB。</t>
+  </si>
+  <si>
+    <t>a)各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；b)高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB；c)任一耳传导性耳聋，平均语频听力损伤≥41dB。</t>
+  </si>
+  <si>
+    <t>各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）</t>
+  </si>
+  <si>
+    <t>高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性噪声聋（见GBZ49）b)职业禁忌证：1)除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；2)任一耳传导性耳聋，平均语频听力损伤≥41dB；3)噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）。</t>
+  </si>
+  <si>
+    <t>1)除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；2)任一耳传导性耳聋，平均语频听力损伤≥41dB；3)噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）。</t>
+  </si>
+  <si>
+    <t>除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）</t>
+  </si>
+  <si>
+    <t>噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)多发性周围神经病；b)雷诺病</t>
+  </si>
+  <si>
+    <t>a)多发性周围神经病；b)雷诺病</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性手臂振动病（见GBZ7）；b)职业禁忌证：多发性周围神经病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)未控制的高血压；b)慢性肾炎；c)未控制的甲状腺亢进症；d)未控制的糖尿病；e)全身疤痕面积≥20%以上（工伤标准的八级）；f)癫病。</t>
+  </si>
+  <si>
+    <t>a)未控制的高血压；b)慢性肾炎；c)未控制的甲状腺亢进症；d)未控制的糖尿病；e)全身疤痕面积≥20%以上（工伤标准的八级）；f)癫病。</t>
+  </si>
+  <si>
+    <t>a)职业病：减压性骨坏死（见GBZ24）b)职业禁忌证：同7.4.1.2。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动性角膜疾病；b)白内障；c)面、手背和前臂等暴露部位严重的皮肤病；d)白化病。</t>
+  </si>
+  <si>
+    <t>a)活动性角膜疾病；b)白内障；c)面、手背和前臂等暴露部位严重的皮肤病；d)白化病。</t>
+  </si>
+  <si>
+    <t>a)职业病：1)职业性电光性皮炎（见GBZ19）；2)职业性白内障（见GBZ35）；b)职业禁忌证：活动性角膜疾病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)神经系统器质性疾病；b)白内障。</t>
+  </si>
+  <si>
+    <t>a)神经系统器质性疾病；b)白内障。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性白内障（见GBZ35）b)职业禁忌证：神经系统器质性疾病。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)慢性肝炎；b)骨关节疾病；c)生殖系统疾病。</t>
+  </si>
+  <si>
+    <t>a)慢性肝炎；b)骨关节疾病；c)生殖系统疾病。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性布氏杆菌病（见GBZ227）；b)职业禁忌证：同8.1.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)泛发慢性湿疹；b)泛发慢性皮炎。</t>
+  </si>
+  <si>
+    <t>a)泛发慢性湿疹；b)泛发慢性皮炎。</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性炭疽（见GBZ227）；b)职业禁忌证：同8.2.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)癫痫；b)晕厥(近一年内有晕厥发作史)；c)2级及以上期高血压（未控制）；d)红绿色盲；e)器质性心脏病或各种心律失常；f)四肢关节运动功能障碍。</t>
+  </si>
+  <si>
+    <t>a)癫痫；b)晕厥(近一年内有晕厥发作史)；c)2级及以上期高血压（未控制）；d)红绿色盲；e)器质性心脏病或各种心律失常；f)四肢关节运动功能障碍。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)未控制的高血压；b)恐高症；c)癫痫；d)晕厥、眩晕症；e)器质性心脏病或各种心律失常；f)四肢骨关节及运动功能障碍。</t>
+  </si>
+  <si>
+    <t>a)未控制的高血压；b)恐高症；c)癫痫；d)晕厥、眩晕症；e)器质性心脏病或各种心律失常；f)四肢骨关节及运动功能障碍。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)红绿色盲；b)2级及以上高血压（未控制）；c)癫痫；d)晕厥、眩晕症；e)双耳语言频段平均听力损失＞25dB；f)器质性心脏病或心律失常。</t>
+  </si>
+  <si>
+    <t>a)红绿色盲；b)2级及以上高血压（未控制）；c)癫痫；d)晕厥、眩晕症；e)双耳语言频段平均听力损失＞25dB；f)器质性心脏病或心律失常。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)身高：大型机动车驾驶员＜155cm，小型机动车驾驶员＜150cm；b)远视力（对数视力表）：大型车机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型车机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；c)红绿色盲；d)听力：双耳平均听阈＞30dB（语频纯音气导）；e)血压：大型车机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型车机动车驾驶员：2级及以上高血压（未控制）；f)深视力：＜－22mm或＞＋22mm；g)暗适应：＞30s；h)复视、立体盲、严重视野缺损；i)器质性心脏病；j)癫痫；k)梅尼埃病；l)眩晕症；m)癔病；n)震颤麻痹；o)各类精神障碍疾病；p)痴呆；q)影响肢体活动的神经系统疾病；r)吸食、注射毒品；长期服用依赖性精神药品成瘾尚未戒除者。</t>
+  </si>
+  <si>
+    <t>a)身高：大型机动车驾驶员＜155cm，小型机动车驾驶员＜150cm；b)远视力（对数视力表）：大型车机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型车机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；c)红绿色盲；d)听力：双耳平均听阈＞30dB（语频纯音气导）；e)血压：大型车机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型车机动车驾驶员：2级及以上高血压（未控制）；f)深视力：＜－22mm或＞＋22mm；g)暗适应：＞30s；h)复视、立体盲、严重视野缺损；i)器质性心脏病；j)癫痫；k)梅尼埃病；l)眩晕症；m)癔病；n)震颤麻痹；o)各类精神障碍疾病；p)痴呆；q)影响肢体活动的神经系统疾病；r)吸食、注射毒品；长期服用依赖性精神药品成瘾尚未戒除者。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)远视力（对数视力表）：大型机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；b)听力：双耳语频平均听阈＞30dB（纯音气导）；c)血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型机动车驾驶员：2级及以上高血压（未控制）；d)红绿色盲；e)器质性心脏病；f)癫痫；g)震颤麻痹；h)癔病；i)吸食、注射毒品、长期服用依赖性精神药品成瘾尚未戒除者。</t>
+  </si>
+  <si>
+    <t>a)远视力（对数视力表）：大型机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；b)听力：双耳语频平均听阈＞30dB（纯音气导）；c)血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型机动车驾驶员：2级及以上高血压（未控制）；d)红绿色盲；e)器质性心脏病；f)癫痫；g)震颤麻痹；h)癔病；i)吸食、注射毒品、长期服用依赖性精神药品成瘾尚未戒除者。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)腕管综合征；b)类风湿关节炎；c)颈椎病；d)矫正视力小于4.5。</t>
+  </si>
+  <si>
+    <t>a)腕管综合征；b)类风湿关节炎；c)颈椎病；d)矫正视力小于4.5。</t>
+  </si>
+  <si>
+    <t>矫正视力小于4.5</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)器质性心脏病；c)2级及以上高血压或低血压；d)慢性间质性肺病；e)伴肺功能损害的疾病；g)贫血；h)红细胞增多症；</t>
+  </si>
+  <si>
+    <t>a)中枢神经系统器质性疾病；b)器质性心脏病；c)2级及以上高血压或低血压；d)慢性间质性肺病；e)伴肺功能损害的疾病；g)贫血；h)红细胞增多症；</t>
+  </si>
+  <si>
+    <t>a)职业病：职业性慢性高原病（见GBZ92）；b)职业禁忌证：除红细胞增多症外，其余同9.8.1.1。</t>
+  </si>
+  <si>
+    <t>职业禁忌证：a)活动的、潜在的、急性或慢性疾病；b)创伤性后遗症；c)影响功能的变形、缺损或损伤及影响功能的肌肉系统疾病；d)恶性肿瘤或影响生理功能的良性肿瘤；e)急性感染性、中毒性精神障碍治愈后留有后遗症；f)神经症、经常性头痛、睡眠障碍；g)药物成瘾、酒精成瘾者；h)中枢神经系统疾病、损伤；i)严重周围神经系统疾病及植物神经系统疾病；j)呼吸系统慢性疾病及功能障碍、肺结核、自发性气胸、胸腔脏器手术史；k)心血管器质性疾病，房室传导阻滞以及难以治愈的周围血管疾病；l)严重消化系统疾病、功能障碍或手术后遗症，病毒性肝炎；m)泌尿系统疾病、损伤以及严重生殖系统疾病；n)造血系统疾病；o)新陈代谢、免疫、内分泌系统系统疾病；p)运动系统疾病、损伤及其后遗症；q)难以治愈的皮肤及其附属器疾病（不含非暴露部位范围小的白癜风）；r)任一眼裸眼远视力低于0.7，任一眼裸眼近视力低于1.0；视野异常；色盲、色弱；夜盲治疗无效者；眼及其附属器疾病治愈后遗有眼功能障碍；s)任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB；t)耳气压功能不良治疗无效者，中耳慢性进行性疾病。内耳疾病或眩晕症不合格；u)影响功能的鼻、鼻窦慢性进行性疾病，嗅觉丧失，影响功能且不易矫治的咽喉部慢性进行性疾病者；v)影响功能的口腔及颞下颚关节慢性进行性疾病。</t>
+  </si>
+  <si>
+    <t>a)活动的、潜在的、急性或慢性疾病；b)创伤性后遗症；c)影响功能的变形、缺损或损伤及影响功能的肌肉系统疾病；d)恶性肿瘤或影响生理功能的良性肿瘤；e)急性感染性、中毒性精神障碍治愈后留有后遗症；f)神经症、经常性头痛、睡眠障碍；g)药物成瘾、酒精成瘾者；h)中枢神经系统疾病、损伤；i)严重周围神经系统疾病及植物神经系统疾病；j)呼吸系统慢性疾病及功能障碍、肺结核、自发性气胸、胸腔脏器手术史；k)心血管器质性疾病，房室传导阻滞以及难以治愈的周围血管疾病；l)严重消化系统疾病、功能障碍或手术后遗症，病毒性肝炎；m)泌尿系统疾病、损伤以及严重生殖系统疾病；n)造血系统疾病；o)新陈代谢、免疫、内分泌系统系统疾病；p)运动系统疾病、损伤及其后遗症；q)难以治愈的皮肤及其附属器疾病（不含非暴露部位范围小的白癜风）；r)任一眼裸眼远视力低于0.7，任一眼裸眼近视力低于1.0；视野异常；色盲、色弱；夜盲治疗无效者；眼及其附属器疾病治愈后遗有眼功能障碍；s)任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB；t)耳气压功能不良治疗无效者，中耳慢性进行性疾病。内耳疾病或眩晕症不合格；u)影响功能的鼻、鼻窦慢性进行性疾病，嗅觉丧失，影响功能且不易矫治的咽喉部慢性进行性疾病者；v)影响功能的口腔及颞下颚关节慢性进行性疾病。</t>
+  </si>
+  <si>
+    <t>任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB</t>
+  </si>
+  <si>
+    <t>同5.1.1.1</t>
+  </si>
+  <si>
     <t>同5.3.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同5.1.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铅及其无机化合物（CASNo：7439-92-1）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中度贫血；b)卟啉病；c)多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>a)中度贫血；b)卟啉病；c)多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性铅中毒（见GBZ37）。b)职业禁忌证：同5.1.1.1。</t>
-  </si>
-  <si>
-    <t>四乙基铅（CASNo：78-00-2）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病。</t>
-  </si>
-  <si>
-    <t>汞及其无机化合物（CASNo：7439-97-6）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病；c)慢性肾脏疾病。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)已确诊并仍需要医学监护的精神障碍性疾病；c)慢性肾脏疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性汞中毒（见GBZ89）；b)职业禁忌证：同5.3.1.1。</t>
-  </si>
-  <si>
-    <t>锰及其无机化合物（CASNo：7439-96-5）</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性锰中毒（见GBZ3）b)职业禁忌证：同5.4.1.1。</t>
-  </si>
-  <si>
-    <t>铍及其无机化台物(CASNo：7440-41-7)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动性肺结核；b)慢性阻塞性肺病；c)支气管哮喘；d)慢性间质性肺病；e)慢性皮肤溃疡。</t>
-  </si>
-  <si>
-    <t>a)活动性肺结核；b)慢性阻塞性肺病；c)支气管哮喘；d)慢性间质性肺病；e)慢性皮肤溃疡。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性慢性铍病(见GBZ67)；2)职业性铍接触性皮炎(见GBZ20)；镀溃疡(见GBZ62)。b)职业禁忌证：同5.5.1.1。</t>
-  </si>
-  <si>
-    <t>镉及其无机化合物(CASNo：7440-43-9)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肾脏疾病；b)骨质疏松症。</t>
-  </si>
-  <si>
-    <t>a)慢性肾脏疾病；b)骨质疏松症。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性镉中毒(见GBZ17)；b)职业禁忌证：同5.6.1.1。</t>
-  </si>
-  <si>
-    <t>铬及其无机化合物(CASNo：7440-47-3)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性皮肤溃疡；b)萎缩性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)慢性皮肤溃疡；b)萎缩性鼻炎。</t>
-  </si>
-  <si>
-    <t>氧化锌(CASNo:1314-13-2)</t>
-  </si>
-  <si>
-    <t>砷(CASNo:7440-38-2)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肝病；b)多发性周围神经病；c)严重慢性皮肤疾病。</t>
-  </si>
-  <si>
-    <t>a)慢性肝病；b)多发性周围神经病；c)严重慢性皮肤疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性慢性砷中毒(见GBZ83)；2)职业性砷所致肺癌、皮肤癌（见GBZ94）。b)职业禁忌证：同5.9.1.1。</t>
-  </si>
-  <si>
-    <t>砷化氢(砷化三氢，CASNo:7784-42-l)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肾脏疾病；b)血清葡萄糖-6-磷酸脱氢酶缺乏症。</t>
-  </si>
-  <si>
-    <t>a)慢性肾脏疾病；b)血清葡萄糖-6-磷酸脱氢酶缺乏症。</t>
-  </si>
-  <si>
-    <t>磷及其无机化合物(CASNo:7723-14-0)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)牙本质病变（不包括龋齿）；b)下颌骨疾病；c)慢性肝病。</t>
-  </si>
-  <si>
-    <t>a)牙本质病变（不包括龋齿）；b)下颌骨疾病；c)慢性肝病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性磷中毒(见GBZ81)；b)职业禁忌证：同5.11.1.1。</t>
-  </si>
-  <si>
-    <t>同5.11.1.1。</t>
-  </si>
-  <si>
-    <t>同5.11.1.1</t>
-  </si>
-  <si>
-    <t>磷化氢(CASNo:7803-51-2)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)支气管哮喘；c)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)支气管哮喘；c)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>钡化合物(氯化钡、硝酸钡、醋酸钡，CASNo:7440-39-3)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)钾代谢障碍；b)慢性器质性心脏病。</t>
-  </si>
-  <si>
-    <t>a)钾代谢障碍；b)慢性器质性心脏病。</t>
-  </si>
-  <si>
-    <t>钒及其无机化合物(CASNo:7440-62-2)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)钾代谢障碍。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)钾代谢障碍。</t>
-  </si>
-  <si>
-    <t>铊及其无机化合物(CASNo:7440-28-0)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)多发性周围神经病；b)视神经病或视网膜病。</t>
-  </si>
-  <si>
-    <t>a)多发性周围神经病；b)视神经病或视网膜病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性铊中毒(见GBZ226)；b)职业禁忌证：同5.16.1.1。</t>
-  </si>
-  <si>
-    <t>同5.16.1.1。</t>
-  </si>
-  <si>
-    <t>同5.16.1.1</t>
-  </si>
-  <si>
-    <t>羰基镍(CASNo:13463-39-3)</t>
-  </si>
-  <si>
-    <t>氟及其无机化合物(CASNo:7782-41-4)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)地方性氟病；b)骨关节疾病。</t>
-  </si>
-  <si>
-    <t>a)地方性氟病；b)骨关节疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：工业性氟病（见GBZ5）；b)职业禁忌证：同5.18.1.1。</t>
-  </si>
-  <si>
-    <t>同5.18.1.1。</t>
-  </si>
-  <si>
-    <t>同5.18.1.1</t>
-  </si>
-  <si>
-    <t>苯（接触工业甲苯、二甲苯参照执行，CASNo：71-43-2）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)血常规检出有如下异常者：1)白细胞计数低于4×l09/L或中性粒细胞低于2×109/L,2)血小板计数低于8×l010/L。；b)造血系统疾病。</t>
-  </si>
-  <si>
-    <t>a)血常规检出有如下异常者：1)白细胞计数低于4×l09/L或中性粒细胞低于2×109/L,2)血小板计数低于8×l010/L。；b)造血系统疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性慢性苯中毒（见GBZ68）；2)职业性苯所致白血病（见GBZ94）；b)职业禁忌证：造血系统疾病。</t>
-  </si>
-  <si>
-    <t>二硫化碳(CASNo:75-15-0)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)多发性周围神经病；c)视网膜病变。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)多发性周围神经病；c)视网膜病变。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性二硫化碳中毒（见GBZ4）；b)职业禁忌证：同5.20.1.1。</t>
-  </si>
-  <si>
-    <t>四氯化碳(CASNo:56-23-5)</t>
-  </si>
-  <si>
-    <t>同5.21.1，1。</t>
-  </si>
-  <si>
-    <t>甲醇(CASNo：67-56-1)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)视网膜及视神经病；b)中枢神经系统器质性疾病。</t>
-  </si>
-  <si>
-    <t>a)视网膜及视神经病；b)中枢神经系统器质性疾病。</t>
-  </si>
-  <si>
-    <t>汽油(CASNo:8006-61-9)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)严重慢性皮肤疾患；b)多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>a)严重慢性皮肤疾患；b)多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性慢性溶剂汽油中毒(见GBZ27)；2)汽油致职业性皮肤病(见GBZ18)；b)职业禁忌证：同5.23.1.1。</t>
-  </si>
-  <si>
-    <t>同5.23.1.1。</t>
-  </si>
-  <si>
-    <t>同5.23.1.1</t>
-  </si>
-  <si>
-    <t>溴甲烷(CASNo：74-83-9)</t>
-  </si>
-  <si>
-    <t>1，2-二氯乙烷(CASNo:107-06-2)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)慢性肝病。</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)慢性肝病。</t>
-  </si>
-  <si>
-    <t>正己烷(CASNo:110-54-3)</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性正己烷中毒（见GBZ84）；b)职业禁忌证：多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>三硝基甲苯(CASNo:118-96-7)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肝病；b)白内障。</t>
-  </si>
-  <si>
-    <t>a)慢性肝病；b)白内障。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性慢性三硝基甲苯中毒（见GBZ69）；2)职业性三硝基甲苯致白内障（见GBZ40）。b)职业禁忌证：同5.28.1.1。</t>
-  </si>
-  <si>
-    <t>同5.28.1.1。</t>
-  </si>
-  <si>
-    <t>同5.28.1.1</t>
-  </si>
-  <si>
-    <t>联苯胺(CASNo:92-87-5)</t>
-  </si>
-  <si>
-    <t>氯气(CASNo：7782-50-5)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性刺激性化学物致慢性阻塞性肺疾病(见GBZ/T237)；b)职业禁忌证：1)支气管哮喘；2)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>1)支气管哮喘；2)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>二氧化硫(CASNo:7446-09-5)</t>
-  </si>
-  <si>
-    <t>氮氧化物(CASNo：977099254)</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性刺激性化学物致慢性阻塞性肺疾病（见GBZ/T237）；b)职业禁忌证：1)支气管哮喘；2)慢性间质性肺病。</t>
-  </si>
-  <si>
-    <t>氨(CASNo:7664-41-7)</t>
-  </si>
-  <si>
-    <t>光气(CASNo：75-44-5)</t>
-  </si>
-  <si>
-    <t>甲醛(CASNo：50-00-0)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病；d)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)慢性阻塞性肺病；b)支气管哮喘；c)慢性间质性肺病；d)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性哮喘(见GBZ57)；2)甲醛致职业性皮肤病(见GBZ18)；3)职业性刺激性化学物致慢性阻塞性肺疾病(见GBZ/T237)；b)职业禁忌证：1)慢性间质性肺病；2)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>1)慢性间质性肺病；2)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>一甲胺(CASNo：74-89-5)</t>
-  </si>
-  <si>
-    <t>一氧化碳(CASNo：630-08-0)</t>
-  </si>
-  <si>
-    <t>硫化氢(CASNo:7783-06-4)</t>
-  </si>
-  <si>
-    <t>氯乙烯(CASNo：75-01-4)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肝病；b)类风湿关节炎。</t>
-  </si>
-  <si>
-    <t>a)慢性肝病；b)类风湿关节炎。</t>
-  </si>
-  <si>
-    <t>三氯乙烯(CASNo:79-01-6)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肝病；b)过敏性皮肤病；c)中枢神经系统器质性疾病。</t>
-  </si>
-  <si>
-    <t>a)慢性肝病；b)过敏性皮肤病；c)中枢神经系统器质性疾病。</t>
-  </si>
-  <si>
-    <t>氯丙烯(CASNo:107-05-1)</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性氯丙烯中毒（见GBZ6）；b)职业禁忌证：多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>氯丁二烯(CASNo：126-99-8)</t>
-  </si>
-  <si>
-    <t>二甲基甲酰胺(CASNo：68-12-2)</t>
-  </si>
-  <si>
-    <t>氰及腈类化合物(CASNo:460-19-5)</t>
-  </si>
-  <si>
-    <t>酚（酚类化合物如甲酚、邻苯二酚、间苯二酚、对苯二酚等参照执行，CASNo：108-95-2）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肾脏疾病；b)严重的皮肤疾病。</t>
-  </si>
-  <si>
-    <t>a)慢性肾脏疾病；b)严重的皮肤疾病。</t>
-  </si>
-  <si>
-    <t>五氯酚(CASNo:87-86-5)</t>
-  </si>
-  <si>
-    <t>氯甲醚[双（氯甲基）醚参照执行，CASNo：107-30-2]</t>
-  </si>
-  <si>
-    <t>a)职业性氯甲醚所致肺癌(见GBZ94)；b)职业禁忌证：同5.49.1.1。</t>
-  </si>
-  <si>
-    <t>同5.49.1.1。</t>
-  </si>
-  <si>
-    <t>同5.49.1.1</t>
-  </si>
-  <si>
-    <t>丙烯酰胺(CASNo:79-06-l)</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性丙烯酰胺中毒（见GBZ50）；b)职业禁忌证：同5.50.1.1。</t>
-  </si>
-  <si>
-    <t>同5.50.1.1。</t>
-  </si>
-  <si>
-    <t>同5.50.1.1</t>
-  </si>
-  <si>
-    <t>偏二甲基肼(CASNo:57-14-7)</t>
-  </si>
-  <si>
-    <t>硫酸二甲酯(CASNo:77-78-1)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性阻塞性肺病；b)支气管哮喘。</t>
-  </si>
-  <si>
-    <t>a)慢性阻塞性肺病；b)支气管哮喘。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)全血胆碱酯酶活性明显低于正常者；b)严重的皮肤疾病。</t>
-  </si>
-  <si>
-    <t>a)全血胆碱酯酶活性明显低于正常者；b)严重的皮肤疾病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)严重的皮肤疾病；b)全血胆碱酯酶活性明显低于正常者。</t>
-  </si>
-  <si>
-    <t>a)严重的皮肤疾病；b)全血胆碱酯酶活性明显低于正常者。</t>
-  </si>
-  <si>
-    <t>拟除虫菊酯类(CASNo：28434-01-7)</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)牙酸蚀病；b)慢性阻塞性肺病；c)支气管哮喘。</t>
-  </si>
-  <si>
-    <t>a)牙酸蚀病；b)慢性阻塞性肺病；c)支气管哮喘。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性牙酸蚀病（见GBZ61）；2)职业性接触性皮炎(见GBZ20)；3)职业性哮喘（见GBZ57）。b)职业禁忌证：慢性阻塞性肺病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性哮喘（见GBZ57）。b)职业禁忌证：1)慢性阻塞性肺病；2)慢性间质性肺病；3)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>1)慢性阻塞性肺病；2)慢性间质性肺病；3)伴有气道高反应的过敏性鼻炎。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性焦炉逸散物所致肺癌（见GBZ94）；2)焦炉逸散物所致职业性皮肤病(见GBZ18)；b)职业禁忌证：同5.58.1.1。</t>
-  </si>
-  <si>
-    <t>同5.58.1.1。</t>
-  </si>
-  <si>
-    <t>同5.58.1.1</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病；</t>
-  </si>
-  <si>
-    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病；</t>
-  </si>
-  <si>
-    <t>a)职业病：矽肺（见GBZ70）b)职业禁忌证：同6.1.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病。</t>
-  </si>
-  <si>
-    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：煤工尘肺（见GBZ70）；b)职业禁忌证：同6.2.1.1。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)石棉肺（见GBZ70）；2)石棉所致肺癌、间皮瘤（见GBZ94）。b)职业禁忌证：同6.3.2.1。</t>
-  </si>
-  <si>
-    <t>a)职业病：炭黑尘肺（见GBZ70）；石墨尘肺（见GBZ70）；滑石尘肺（见GBZ70）；云母尘肺（见GBZ70）；水泥尘肺（见GBZ70）；铸工尘肺（见GBZ70）；陶工尘肺（见GBZ70）；铝尘肺（见GBZ70）；电焊工尘肺（见GBZ70）。b)职业禁忌证：同6.4.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动性肺结核病；b)慢性阻塞性肺病；c)伴肺功能损害的疾病；</t>
-  </si>
-  <si>
-    <t>a)活动性肺结核病；b)慢性阻塞性肺病；c)伴肺功能损害的疾病；</t>
-  </si>
-  <si>
-    <t>a)职业病：棉尘病（见GBZ56）；b)职业禁忌证：同6.5.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)致喘物过敏和支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的心血管系统疾病。</t>
-  </si>
-  <si>
-    <t>a)致喘物过敏和支气管哮喘；b)慢性阻塞性肺病；c)慢性间质性肺病；d)伴肺功能损害的心血管系统疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性哮喘（见GBZ57）；2)职业性急性变应性肺泡炎（见GBZ60）b)职业禁忌证：伴肺功能损害的心血管系统疾病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；b)高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB；c)任一耳传导性耳聋，平均语频听力损伤≥41dB。</t>
-  </si>
-  <si>
-    <t>a)各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；b)高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB；c)任一耳传导性耳聋，平均语频听力损伤≥41dB。</t>
-  </si>
-  <si>
-    <t>各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）</t>
-  </si>
-  <si>
-    <t>高频段3000Hz、4000Hz、6000Hz双耳平均听阈≥40dB</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性噪声聋（见GBZ49）b)职业禁忌证：1)除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；2)任一耳传导性耳聋，平均语频听力损伤≥41dB；3)噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）。</t>
-  </si>
-  <si>
-    <t>1)除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）；2)任一耳传导性耳聋，平均语频听力损伤≥41dB；3)噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）。</t>
-  </si>
-  <si>
-    <t>除噪声外各种原因引起永久性感音神经性听力损失（500Hz、1000Hz和2000Hz中任一频率的纯音气导听阈＞25dB）</t>
-  </si>
-  <si>
-    <t>噪声敏感者（上岗前职业健康检查纯音听力检查各频率听力损失均≤25dB，但噪声作业1年之内，高频段3000Hz、4000Hz、6000Hz中任一耳，任一频率听阈≥65dB）</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)多发性周围神经病；b)雷诺病</t>
-  </si>
-  <si>
-    <t>a)多发性周围神经病；b)雷诺病</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性手臂振动病（见GBZ7）；b)职业禁忌证：多发性周围神经病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)未控制的高血压；b)慢性肾炎；c)未控制的甲状腺亢进症；d)未控制的糖尿病；e)全身疤痕面积≥20%以上（工伤标准的八级）；f)癫病。</t>
-  </si>
-  <si>
-    <t>a)未控制的高血压；b)慢性肾炎；c)未控制的甲状腺亢进症；d)未控制的糖尿病；e)全身疤痕面积≥20%以上（工伤标准的八级）；f)癫病。</t>
-  </si>
-  <si>
-    <t>a)职业病：减压性骨坏死（见GBZ24）b)职业禁忌证：同7.4.1.2。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动性角膜疾病；b)白内障；c)面、手背和前臂等暴露部位严重的皮肤病；d)白化病。</t>
-  </si>
-  <si>
-    <t>a)活动性角膜疾病；b)白内障；c)面、手背和前臂等暴露部位严重的皮肤病；d)白化病。</t>
-  </si>
-  <si>
-    <t>a)职业病：1)职业性电光性皮炎（见GBZ19）；2)职业性白内障（见GBZ35）；b)职业禁忌证：活动性角膜疾病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)神经系统器质性疾病；b)白内障。</t>
-  </si>
-  <si>
-    <t>a)神经系统器质性疾病；b)白内障。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性白内障（见GBZ35）b)职业禁忌证：神经系统器质性疾病。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)慢性肝炎；b)骨关节疾病；c)生殖系统疾病。</t>
-  </si>
-  <si>
-    <t>a)慢性肝炎；b)骨关节疾病；c)生殖系统疾病。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性布氏杆菌病（见GBZ227）；b)职业禁忌证：同8.1.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)泛发慢性湿疹；b)泛发慢性皮炎。</t>
-  </si>
-  <si>
-    <t>a)泛发慢性湿疹；b)泛发慢性皮炎。</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性炭疽（见GBZ227）；b)职业禁忌证：同8.2.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)癫痫；b)晕厥(近一年内有晕厥发作史)；c)2级及以上期高血压（未控制）；d)红绿色盲；e)器质性心脏病或各种心律失常；f)四肢关节运动功能障碍。</t>
-  </si>
-  <si>
-    <t>a)癫痫；b)晕厥(近一年内有晕厥发作史)；c)2级及以上期高血压（未控制）；d)红绿色盲；e)器质性心脏病或各种心律失常；f)四肢关节运动功能障碍。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)未控制的高血压；b)恐高症；c)癫痫；d)晕厥、眩晕症；e)器质性心脏病或各种心律失常；f)四肢骨关节及运动功能障碍。</t>
-  </si>
-  <si>
-    <t>a)未控制的高血压；b)恐高症；c)癫痫；d)晕厥、眩晕症；e)器质性心脏病或各种心律失常；f)四肢骨关节及运动功能障碍。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)红绿色盲；b)2级及以上高血压（未控制）；c)癫痫；d)晕厥、眩晕症；e)双耳语言频段平均听力损失＞25dB；f)器质性心脏病或心律失常。</t>
-  </si>
-  <si>
-    <t>a)红绿色盲；b)2级及以上高血压（未控制）；c)癫痫；d)晕厥、眩晕症；e)双耳语言频段平均听力损失＞25dB；f)器质性心脏病或心律失常。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)身高：大型机动车驾驶员＜155cm，小型机动车驾驶员＜150cm；b)远视力（对数视力表）：大型车机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型车机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；c)红绿色盲；d)听力：双耳平均听阈＞30dB（语频纯音气导）；e)血压：大型车机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型车机动车驾驶员：2级及以上高血压（未控制）；f)深视力：＜－22mm或＞＋22mm；g)暗适应：＞30s；h)复视、立体盲、严重视野缺损；i)器质性心脏病；j)癫痫；k)梅尼埃病；l)眩晕症；m)癔病；n)震颤麻痹；o)各类精神障碍疾病；p)痴呆；q)影响肢体活动的神经系统疾病；r)吸食、注射毒品；长期服用依赖性精神药品成瘾尚未戒除者。</t>
-  </si>
-  <si>
-    <t>a)身高：大型机动车驾驶员＜155cm，小型机动车驾驶员＜150cm；b)远视力（对数视力表）：大型车机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型车机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；c)红绿色盲；d)听力：双耳平均听阈＞30dB（语频纯音气导）；e)血压：大型车机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型车机动车驾驶员：2级及以上高血压（未控制）；f)深视力：＜－22mm或＞＋22mm；g)暗适应：＞30s；h)复视、立体盲、严重视野缺损；i)器质性心脏病；j)癫痫；k)梅尼埃病；l)眩晕症；m)癔病；n)震颤麻痹；o)各类精神障碍疾病；p)痴呆；q)影响肢体活动的神经系统疾病；r)吸食、注射毒品；长期服用依赖性精神药品成瘾尚未戒除者。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)远视力（对数视力表）：大型机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；b)听力：双耳语频平均听阈＞30dB（纯音气导）；c)血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型机动车驾驶员：2级及以上高血压（未控制）；d)红绿色盲；e)器质性心脏病；f)癫痫；g)震颤麻痹；h)癔病；i)吸食、注射毒品、长期服用依赖性精神药品成瘾尚未戒除者。</t>
-  </si>
-  <si>
-    <t>a)远视力（对数视力表）：大型机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）；小型机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）；b)听力：双耳语频平均听阈＞30dB（纯音气导）；c)血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）；小型机动车驾驶员：2级及以上高血压（未控制）；d)红绿色盲；e)器质性心脏病；f)癫痫；g)震颤麻痹；h)癔病；i)吸食、注射毒品、长期服用依赖性精神药品成瘾尚未戒除者。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)腕管综合征；b)类风湿关节炎；c)颈椎病；d)矫正视力小于4.5。</t>
-  </si>
-  <si>
-    <t>a)腕管综合征；b)类风湿关节炎；c)颈椎病；d)矫正视力小于4.5。</t>
-  </si>
-  <si>
-    <t>矫正视力小于4.5</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)中枢神经系统器质性疾病；b)器质性心脏病；c)2级及以上高血压或低血压；d)慢性间质性肺病；e)伴肺功能损害的疾病；g)贫血；h)红细胞增多症；</t>
-  </si>
-  <si>
-    <t>a)中枢神经系统器质性疾病；b)器质性心脏病；c)2级及以上高血压或低血压；d)慢性间质性肺病；e)伴肺功能损害的疾病；g)贫血；h)红细胞增多症；</t>
-  </si>
-  <si>
-    <t>a)职业病：职业性慢性高原病（见GBZ92）；b)职业禁忌证：除红细胞增多症外，其余同9.8.1.1。</t>
-  </si>
-  <si>
-    <t>职业禁忌证：a)活动的、潜在的、急性或慢性疾病；b)创伤性后遗症；c)影响功能的变形、缺损或损伤及影响功能的肌肉系统疾病；d)恶性肿瘤或影响生理功能的良性肿瘤；e)急性感染性、中毒性精神障碍治愈后留有后遗症；f)神经症、经常性头痛、睡眠障碍；g)药物成瘾、酒精成瘾者；h)中枢神经系统疾病、损伤；i)严重周围神经系统疾病及植物神经系统疾病；j)呼吸系统慢性疾病及功能障碍、肺结核、自发性气胸、胸腔脏器手术史；k)心血管器质性疾病，房室传导阻滞以及难以治愈的周围血管疾病；l)严重消化系统疾病、功能障碍或手术后遗症，病毒性肝炎；m)泌尿系统疾病、损伤以及严重生殖系统疾病；n)造血系统疾病；o)新陈代谢、免疫、内分泌系统系统疾病；p)运动系统疾病、损伤及其后遗症；q)难以治愈的皮肤及其附属器疾病（不含非暴露部位范围小的白癜风）；r)任一眼裸眼远视力低于0.7，任一眼裸眼近视力低于1.0；视野异常；色盲、色弱；夜盲治疗无效者；眼及其附属器疾病治愈后遗有眼功能障碍；s)任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB；t)耳气压功能不良治疗无效者，中耳慢性进行性疾病。内耳疾病或眩晕症不合格；u)影响功能的鼻、鼻窦慢性进行性疾病，嗅觉丧失，影响功能且不易矫治的咽喉部慢性进行性疾病者；v)影响功能的口腔及颞下颚关节慢性进行性疾病。</t>
-  </si>
-  <si>
-    <t>a)活动的、潜在的、急性或慢性疾病；b)创伤性后遗症；c)影响功能的变形、缺损或损伤及影响功能的肌肉系统疾病；d)恶性肿瘤或影响生理功能的良性肿瘤；e)急性感染性、中毒性精神障碍治愈后留有后遗症；f)神经症、经常性头痛、睡眠障碍；g)药物成瘾、酒精成瘾者；h)中枢神经系统疾病、损伤；i)严重周围神经系统疾病及植物神经系统疾病；j)呼吸系统慢性疾病及功能障碍、肺结核、自发性气胸、胸腔脏器手术史；k)心血管器质性疾病，房室传导阻滞以及难以治愈的周围血管疾病；l)严重消化系统疾病、功能障碍或手术后遗症，病毒性肝炎；m)泌尿系统疾病、损伤以及严重生殖系统疾病；n)造血系统疾病；o)新陈代谢、免疫、内分泌系统系统疾病；p)运动系统疾病、损伤及其后遗症；q)难以治愈的皮肤及其附属器疾病（不含非暴露部位范围小的白癜风）；r)任一眼裸眼远视力低于0.7，任一眼裸眼近视力低于1.0；视野异常；色盲、色弱；夜盲治疗无效者；眼及其附属器疾病治愈后遗有眼功能障碍；s)任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB；t)耳气压功能不良治疗无效者，中耳慢性进行性疾病。内耳疾病或眩晕症不合格；u)影响功能的鼻、鼻窦慢性进行性疾病，嗅觉丧失，影响功能且不易矫治的咽喉部慢性进行性疾病者；v)影响功能的口腔及颞下颚关节慢性进行性疾病。</t>
-  </si>
-  <si>
-    <t>任一耳纯音听力图气导听力曲线在500Hz、1000Hz、2000Hz任一频率听力损失不得超过35dB或3000Hz频率听力损失不得超过50dB</t>
+  </si>
+  <si>
+    <t>活动性肺结核</t>
+  </si>
+  <si>
+    <t>身高：大型机动车驾驶员＜155cm，小型机动车驾驶员＜150cm</t>
+  </si>
+  <si>
+    <t>远视力（对数视力表）：大型车机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）</t>
+  </si>
+  <si>
+    <t>小型车机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）</t>
+  </si>
+  <si>
+    <t>听力：双耳平均听阈＞30dB（语频纯音气导）</t>
+  </si>
+  <si>
+    <t>小型车机动车驾驶员：2级及以上高血压（未控制）</t>
+  </si>
+  <si>
+    <t>远视力（对数视力表）：大型机动车驾驶员：两裸眼＜4.0，并＜5.0（矫正）</t>
+  </si>
+  <si>
+    <t>小型机动车驾驶员：两裸眼＜4.0，并＜4.9（矫正）</t>
+  </si>
+  <si>
+    <t>听力：双耳语频平均听阈＞30dB（纯音气导）</t>
+  </si>
+  <si>
+    <t>小型机动车驾驶员：2级及以上高血压（未控制）</t>
   </si>
   <si>
     <t>除红细胞增多症外，其余同9.8.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经症、经常性头痛、睡眠障碍</t>
   </si>
   <si>
     <t>药物成瘾、酒精成瘾者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经症、经常性头痛、睡眠障碍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血常规检出有如下异常者：1)白细胞计数低于4×l09/L或中性粒细胞低于2×109/L,2)血小板计数低于8×l010/L</t>
   </si>
   <si>
     <t>a)职业病：职业性慢性中毒性肝病（见GBZ59）；b)职业禁忌证：同5.21.1，1。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业禁忌证：慢性肝病。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同5.21.1.1</t>
+  </si>
+  <si>
+    <t>同5.21.1，1</t>
+  </si>
+  <si>
+    <t>深视力：＜－22mm或＞＋22mm</t>
+  </si>
+  <si>
+    <t>暗适应：＞30s</t>
+  </si>
+  <si>
+    <t>血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）</t>
+  </si>
+  <si>
+    <t>严重慢性皮肤疾病</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1692,7 +1697,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>活动性肺结核病</t>
+    <t>血压：大型机动车驾驶员：收缩压≥18.7kPa（≥140mmHg）和舒张压≥12kPa（≥90mmHg）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2045,16 +2050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="76.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -2088,16 +2090,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2111,16 +2113,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -2134,16 +2136,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2157,19 +2159,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>333</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,16 +2182,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2203,16 +2205,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -2226,16 +2228,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2249,16 +2251,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -2272,16 +2274,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -2295,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>332</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,16 +2320,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -2341,16 +2343,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -2364,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -2387,19 +2389,19 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G15" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,16 +2412,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -2433,16 +2435,16 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2456,16 +2458,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F18" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -2479,16 +2481,16 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -2502,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -2525,16 +2527,16 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -2548,16 +2550,16 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2571,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2594,16 +2596,16 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2617,16 +2619,16 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2640,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -2663,16 +2665,16 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -2686,16 +2688,16 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2709,16 +2711,16 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
@@ -2732,13 +2734,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -2755,16 +2757,16 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -2778,16 +2780,16 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2801,16 +2803,16 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F33" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -2824,16 +2826,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F34" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G34" t="s">
         <v>56</v>
@@ -2847,16 +2849,16 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F35" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -2870,19 +2872,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F36" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,16 +2895,16 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2916,16 +2918,16 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -2939,16 +2941,16 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -2962,16 +2964,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F40" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G40" t="s">
         <v>60</v>
@@ -2985,16 +2987,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
         <v>61</v>
@@ -3008,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -3037,10 +3039,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3060,10 +3062,10 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
         <v>60</v>
@@ -3077,16 +3079,16 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -3100,16 +3102,16 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
         <v>68</v>
@@ -3123,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G47" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -3169,16 +3171,16 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
         <v>72</v>
@@ -3192,16 +3194,16 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G50" t="s">
         <v>73</v>
@@ -3215,19 +3217,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G51" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3238,19 +3240,19 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3261,62 +3263,62 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3324,22 +3326,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -3347,68 +3349,68 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
         <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>398</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57" t="s">
-        <v>400</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
         <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
         <v>85</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>402</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>549</v>
-      </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
         <v>47</v>
@@ -3416,22 +3418,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
         <v>550</v>
@@ -3439,45 +3441,45 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>393</v>
+      </c>
+      <c r="F61" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" t="s">
         <v>89</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>404</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>405</v>
-      </c>
-      <c r="F61" t="s">
-        <v>406</v>
-      </c>
-      <c r="G61" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
@@ -3485,45 +3487,45 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F64" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -3531,45 +3533,45 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G65" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" t="s">
         <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" t="s">
-        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -3577,22 +3579,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F67" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
@@ -3600,22 +3602,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F68" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G68" t="s">
         <v>47</v>
@@ -3623,22 +3625,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" t="s">
         <v>98</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>417</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" t="s">
-        <v>100</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3646,22 +3648,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3669,22 +3671,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="E71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" t="s">
         <v>86</v>
-      </c>
-      <c r="F71" t="s">
-        <v>87</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -3692,22 +3694,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F72" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -3715,91 +3717,91 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F74" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G74" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>413</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" t="s">
         <v>107</v>
       </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>425</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>108</v>
-      </c>
-      <c r="F75" t="s">
-        <v>109</v>
-      </c>
-      <c r="G75" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F76" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G76" t="s">
         <v>28</v>
@@ -3807,22 +3809,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F77" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -3830,22 +3832,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F78" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -3853,22 +3855,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F79" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -3876,22 +3878,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F80" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -3899,22 +3901,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F81" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G81" t="s">
         <v>28</v>
@@ -3922,22 +3924,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F82" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -3945,22 +3947,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F83" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -3968,22 +3970,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F84" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -3991,22 +3993,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F85" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -4014,22 +4016,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F86" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G86" t="s">
         <v>28</v>
@@ -4037,22 +4039,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F87" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -4060,22 +4062,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F88" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G88" t="s">
         <v>30</v>
@@ -4083,22 +4085,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G89" t="s">
         <v>29</v>
@@ -4106,22 +4108,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F90" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G90" t="s">
         <v>30</v>
@@ -4129,22 +4131,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F91" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G91" t="s">
         <v>28</v>
@@ -4152,22 +4154,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -4175,22 +4177,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F93" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -4198,22 +4200,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F94" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -4221,22 +4223,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F95" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -4244,22 +4246,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G96" t="s">
         <v>28</v>
@@ -4267,22 +4269,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -4290,22 +4292,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G98" t="s">
         <v>30</v>
@@ -4313,22 +4315,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G99" t="s">
         <v>28</v>
@@ -4336,22 +4338,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F100" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -4359,22 +4361,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F101" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G101" t="s">
         <v>30</v>
@@ -4382,45 +4384,45 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F103" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -4428,45 +4430,45 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F104" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F105" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G105" t="s">
         <v>28</v>
@@ -4474,22 +4476,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F106" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -4497,22 +4499,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F107" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -4520,22 +4522,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G108" t="s">
         <v>17</v>
@@ -4543,22 +4545,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F109" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G109" t="s">
         <v>17</v>
@@ -4566,22 +4568,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F110" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G110" t="s">
         <v>47</v>
@@ -4589,45 +4591,45 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F111" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F112" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G112" t="s">
         <v>47</v>
@@ -4635,45 +4637,45 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F113" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F114" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G114" t="s">
         <v>17</v>
@@ -4681,22 +4683,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F115" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
@@ -4704,22 +4706,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -4727,22 +4729,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
       </c>
       <c r="E117" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" t="s">
         <v>86</v>
-      </c>
-      <c r="F117" t="s">
-        <v>87</v>
       </c>
       <c r="G117" t="s">
         <v>47</v>
@@ -4750,13 +4752,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -4773,22 +4775,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
       </c>
       <c r="E119" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" t="s">
         <v>86</v>
-      </c>
-      <c r="F119" t="s">
-        <v>87</v>
       </c>
       <c r="G119" t="s">
         <v>47</v>
@@ -4796,22 +4798,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F120" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G120" t="s">
         <v>17</v>
@@ -4819,22 +4821,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F121" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -4842,36 +4844,36 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F122" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -4888,13 +4890,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -4911,45 +4913,45 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G125" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G126" t="s">
         <v>12</v>
@@ -4957,45 +4959,45 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D127" t="s">
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F127" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G128" t="s">
         <v>17</v>
@@ -5003,22 +5005,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F129" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G129" t="s">
         <v>28</v>
@@ -5026,22 +5028,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F130" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -5049,160 +5051,160 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>459</v>
+      </c>
+      <c r="F131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G131" t="s">
         <v>146</v>
-      </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>147</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" t="s">
-        <v>471</v>
-      </c>
-      <c r="F131" t="s">
-        <v>472</v>
-      </c>
-      <c r="G131" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F132" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F133" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F134" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>463</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>150</v>
+      </c>
+      <c r="F135" t="s">
         <v>151</v>
       </c>
-      <c r="B135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" t="s">
-        <v>475</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>152</v>
-      </c>
-      <c r="F135" t="s">
-        <v>153</v>
-      </c>
       <c r="G135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>464</v>
+      </c>
+      <c r="F136" t="s">
+        <v>465</v>
+      </c>
+      <c r="G136" t="s">
         <v>154</v>
-      </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>155</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" t="s">
-        <v>476</v>
-      </c>
-      <c r="F136" t="s">
-        <v>477</v>
-      </c>
-      <c r="G136" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F137" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G137" t="s">
         <v>28</v>
@@ -5210,22 +5212,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F138" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -5233,19 +5235,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F139" t="s">
         <v>64</v>
@@ -5256,22 +5258,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F140" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -5279,22 +5281,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F141" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G141" t="s">
         <v>28</v>
@@ -5302,22 +5304,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F142" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -5325,45 +5327,45 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>467</v>
+      </c>
+      <c r="F143" t="s">
+        <v>468</v>
+      </c>
+      <c r="G143" t="s">
         <v>158</v>
-      </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>159</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
-        <v>479</v>
-      </c>
-      <c r="F143" t="s">
-        <v>480</v>
-      </c>
-      <c r="G143" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F144" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G144" t="s">
         <v>28</v>
@@ -5371,22 +5373,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F145" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G145" t="s">
         <v>30</v>
@@ -5394,36 +5396,36 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F146" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
@@ -5440,68 +5442,68 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F148" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G148" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>474</v>
+      </c>
+      <c r="F149" t="s">
+        <v>475</v>
+      </c>
+      <c r="G149" t="s">
         <v>165</v>
-      </c>
-      <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>166</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>486</v>
-      </c>
-      <c r="F149" t="s">
-        <v>487</v>
-      </c>
-      <c r="G149" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F150" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G150" t="s">
         <v>28</v>
@@ -5509,22 +5511,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F151" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G151" t="s">
         <v>30</v>
@@ -5532,91 +5534,91 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
       <c r="C152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>474</v>
+      </c>
+      <c r="F152" t="s">
+        <v>475</v>
+      </c>
+      <c r="G152" t="s">
         <v>166</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" t="s">
-        <v>486</v>
-      </c>
-      <c r="F152" t="s">
-        <v>487</v>
-      </c>
-      <c r="G152" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F154" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F155" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G155" t="s">
         <v>28</v>
@@ -5624,22 +5626,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F156" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -5647,91 +5649,91 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F157" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D159" t="s">
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F159" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F160" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G160" t="s">
         <v>28</v>
@@ -5739,22 +5741,22 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D161" t="s">
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F161" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -5762,91 +5764,91 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F162" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G163" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D164" t="s">
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F164" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
         <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F165" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G165" t="s">
         <v>28</v>
@@ -5854,22 +5856,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F166" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -5877,91 +5879,91 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F167" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G168" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D169" t="s">
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F169" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F170" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G170" t="s">
         <v>28</v>
@@ -5969,91 +5971,91 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D171" t="s">
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F171" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G171" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F172" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>191</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>485</v>
+      </c>
+      <c r="F173" t="s">
+        <v>486</v>
+      </c>
+      <c r="G173" t="s">
         <v>192</v>
-      </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>193</v>
-      </c>
-      <c r="D173" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" t="s">
-        <v>497</v>
-      </c>
-      <c r="F173" t="s">
-        <v>498</v>
-      </c>
-      <c r="G173" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F174" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G174" t="s">
         <v>28</v>
@@ -6061,22 +6063,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D175" t="s">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F175" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G175" t="s">
         <v>30</v>
@@ -6084,206 +6086,206 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>485</v>
+      </c>
+      <c r="F176" t="s">
+        <v>486</v>
+      </c>
+      <c r="G176" t="s">
         <v>193</v>
-      </c>
-      <c r="D176" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" t="s">
-        <v>497</v>
-      </c>
-      <c r="F176" t="s">
-        <v>498</v>
-      </c>
-      <c r="G176" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D178" t="s">
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F178" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G178" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F179" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G179" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>488</v>
+      </c>
+      <c r="F180" t="s">
+        <v>489</v>
+      </c>
+      <c r="G180" t="s">
         <v>198</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>199</v>
-      </c>
-      <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" t="s">
-        <v>500</v>
-      </c>
-      <c r="F180" t="s">
-        <v>501</v>
-      </c>
-      <c r="G180" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F181" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G181" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F182" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G182" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F183" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G183" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F184" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G184" t="s">
         <v>12</v>
@@ -6291,45 +6293,45 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>201</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>496</v>
+      </c>
+      <c r="F185" t="s">
+        <v>497</v>
+      </c>
+      <c r="G185" t="s">
         <v>202</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>203</v>
-      </c>
-      <c r="D185" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" t="s">
-        <v>508</v>
-      </c>
-      <c r="F185" t="s">
-        <v>509</v>
-      </c>
-      <c r="G185" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F186" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G186" t="s">
         <v>12</v>
@@ -6337,390 +6339,390 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>499</v>
+      </c>
+      <c r="F187" t="s">
+        <v>500</v>
+      </c>
+      <c r="G187" t="s">
         <v>206</v>
-      </c>
-      <c r="B187" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" t="s">
-        <v>207</v>
-      </c>
-      <c r="D187" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" t="s">
-        <v>511</v>
-      </c>
-      <c r="F187" t="s">
-        <v>512</v>
-      </c>
-      <c r="G187" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>499</v>
+      </c>
+      <c r="F188" t="s">
+        <v>500</v>
+      </c>
+      <c r="G188" t="s">
         <v>207</v>
-      </c>
-      <c r="D188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" t="s">
-        <v>511</v>
-      </c>
-      <c r="F188" t="s">
-        <v>512</v>
-      </c>
-      <c r="G188" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F189" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G189" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F190" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G190" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F191" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G191" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F192" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G192" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F193" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>217</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>502</v>
+      </c>
+      <c r="F194" t="s">
+        <v>503</v>
+      </c>
+      <c r="G194" t="s">
         <v>218</v>
-      </c>
-      <c r="B194" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" t="s">
-        <v>219</v>
-      </c>
-      <c r="D194" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" t="s">
-        <v>514</v>
-      </c>
-      <c r="F194" t="s">
-        <v>515</v>
-      </c>
-      <c r="G194" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D195" t="s">
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F195" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G195" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
+        <v>217</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>502</v>
+      </c>
+      <c r="F196" t="s">
+        <v>503</v>
+      </c>
+      <c r="G196" t="s">
         <v>219</v>
-      </c>
-      <c r="D196" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196" t="s">
-        <v>514</v>
-      </c>
-      <c r="F196" t="s">
-        <v>515</v>
-      </c>
-      <c r="G196" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F197" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G197" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F198" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G198" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>505</v>
+      </c>
+      <c r="F199" t="s">
+        <v>506</v>
+      </c>
+      <c r="G199" t="s">
         <v>225</v>
-      </c>
-      <c r="B199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" t="s">
-        <v>226</v>
-      </c>
-      <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" t="s">
-        <v>517</v>
-      </c>
-      <c r="F199" t="s">
-        <v>518</v>
-      </c>
-      <c r="G199" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F200" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G200" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D201" t="s">
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F201" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G201" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>229</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>508</v>
+      </c>
+      <c r="F202" t="s">
+        <v>509</v>
+      </c>
+      <c r="G202" t="s">
         <v>230</v>
-      </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" t="s">
-        <v>231</v>
-      </c>
-      <c r="D202" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" t="s">
-        <v>520</v>
-      </c>
-      <c r="F202" t="s">
-        <v>521</v>
-      </c>
-      <c r="G202" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F203" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G203" t="s">
         <v>73</v>
@@ -6728,597 +6730,597 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="C204" t="s">
+        <v>229</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>508</v>
+      </c>
+      <c r="F204" t="s">
+        <v>509</v>
+      </c>
+      <c r="G204" t="s">
         <v>231</v>
-      </c>
-      <c r="D204" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" t="s">
-        <v>520</v>
-      </c>
-      <c r="F204" t="s">
-        <v>521</v>
-      </c>
-      <c r="G204" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D205" t="s">
         <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F205" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G205" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>511</v>
+      </c>
+      <c r="F206" t="s">
+        <v>512</v>
+      </c>
+      <c r="G206" t="s">
         <v>237</v>
-      </c>
-      <c r="B206" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" t="s">
-        <v>238</v>
-      </c>
-      <c r="D206" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" t="s">
-        <v>523</v>
-      </c>
-      <c r="F206" t="s">
-        <v>524</v>
-      </c>
-      <c r="G206" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="C207" t="s">
+        <v>236</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>511</v>
+      </c>
+      <c r="F207" t="s">
+        <v>512</v>
+      </c>
+      <c r="G207" t="s">
         <v>238</v>
-      </c>
-      <c r="D207" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" t="s">
-        <v>523</v>
-      </c>
-      <c r="F207" t="s">
-        <v>524</v>
-      </c>
-      <c r="G207" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>239</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>236</v>
+      </c>
+      <c r="D208" t="s">
+        <v>240</v>
+      </c>
+      <c r="E208" t="s">
+        <v>513</v>
+      </c>
+      <c r="F208" t="s">
         <v>241</v>
       </c>
-      <c r="B208" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" t="s">
-        <v>238</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="G208" t="s">
         <v>242</v>
-      </c>
-      <c r="E208" t="s">
-        <v>525</v>
-      </c>
-      <c r="F208" t="s">
-        <v>243</v>
-      </c>
-      <c r="G208" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>244</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>514</v>
+      </c>
+      <c r="F209" t="s">
+        <v>515</v>
+      </c>
+      <c r="G209" t="s">
         <v>245</v>
-      </c>
-      <c r="B209" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" t="s">
-        <v>246</v>
-      </c>
-      <c r="D209" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" t="s">
-        <v>526</v>
-      </c>
-      <c r="F209" t="s">
-        <v>527</v>
-      </c>
-      <c r="G209" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
       <c r="C210" t="s">
+        <v>244</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>514</v>
+      </c>
+      <c r="F210" t="s">
+        <v>515</v>
+      </c>
+      <c r="G210" t="s">
         <v>246</v>
-      </c>
-      <c r="D210" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" t="s">
-        <v>526</v>
-      </c>
-      <c r="F210" t="s">
-        <v>527</v>
-      </c>
-      <c r="G210" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F211" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G211" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F212" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G212" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F213" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G213" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F214" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G214" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F215" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G215" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>250</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>251</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>516</v>
+      </c>
+      <c r="F216" t="s">
+        <v>517</v>
+      </c>
+      <c r="G216" t="s">
         <v>252</v>
-      </c>
-      <c r="B216" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" t="s">
-        <v>253</v>
-      </c>
-      <c r="D216" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" t="s">
-        <v>528</v>
-      </c>
-      <c r="F216" t="s">
-        <v>529</v>
-      </c>
-      <c r="G216" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F217" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G217" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
       </c>
       <c r="C218" t="s">
+        <v>251</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>516</v>
+      </c>
+      <c r="F218" t="s">
+        <v>517</v>
+      </c>
+      <c r="G218" t="s">
         <v>253</v>
-      </c>
-      <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>528</v>
-      </c>
-      <c r="F218" t="s">
-        <v>529</v>
-      </c>
-      <c r="G218" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F219" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G219" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F220" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G220" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F221" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G221" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>255</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>256</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>518</v>
+      </c>
+      <c r="F222" t="s">
+        <v>519</v>
+      </c>
+      <c r="G222" t="s">
         <v>257</v>
-      </c>
-      <c r="B222" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" t="s">
-        <v>258</v>
-      </c>
-      <c r="D222" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" t="s">
-        <v>530</v>
-      </c>
-      <c r="F222" t="s">
-        <v>531</v>
-      </c>
-      <c r="G222" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F223" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F224" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G224" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="C225" t="s">
+        <v>256</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>518</v>
+      </c>
+      <c r="F225" t="s">
+        <v>519</v>
+      </c>
+      <c r="G225" t="s">
         <v>258</v>
-      </c>
-      <c r="D225" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" t="s">
-        <v>530</v>
-      </c>
-      <c r="F225" t="s">
-        <v>531</v>
-      </c>
-      <c r="G225" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F226" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
       </c>
       <c r="E227" t="s">
+        <v>261</v>
+      </c>
+      <c r="F227" t="s">
+        <v>262</v>
+      </c>
+      <c r="G227" t="s">
         <v>263</v>
-      </c>
-      <c r="F227" t="s">
-        <v>264</v>
-      </c>
-      <c r="G227" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>264</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>265</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
         <v>266</v>
       </c>
-      <c r="B228" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="F228" t="s">
         <v>267</v>
       </c>
-      <c r="D228" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="G228" t="s">
         <v>268</v>
-      </c>
-      <c r="F228" t="s">
-        <v>269</v>
-      </c>
-      <c r="G228" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
       </c>
       <c r="E229" t="s">
+        <v>85</v>
+      </c>
+      <c r="F229" t="s">
         <v>86</v>
-      </c>
-      <c r="F229" t="s">
-        <v>87</v>
       </c>
       <c r="G229" t="s">
         <v>47</v>
@@ -7326,850 +7328,850 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F230" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G230" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F231" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G231" t="s">
-        <v>276</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F232" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G232" t="s">
-        <v>277</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F233" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G233" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F234" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G234" t="s">
-        <v>278</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F235" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G235" t="s">
-        <v>279</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F236" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G236" t="s">
-        <v>277</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F237" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G237" t="s">
-        <v>280</v>
+        <v>551</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D238" t="s">
         <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F238" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G238" t="s">
-        <v>281</v>
+        <v>552</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>271</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>520</v>
+      </c>
+      <c r="F239" t="s">
+        <v>521</v>
+      </c>
+      <c r="G239" t="s">
         <v>273</v>
-      </c>
-      <c r="B239" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" t="s">
-        <v>274</v>
-      </c>
-      <c r="D239" t="s">
-        <v>9</v>
-      </c>
-      <c r="E239" t="s">
-        <v>532</v>
-      </c>
-      <c r="F239" t="s">
-        <v>533</v>
-      </c>
-      <c r="G239" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="C240" t="s">
+        <v>272</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>520</v>
+      </c>
+      <c r="F240" t="s">
+        <v>521</v>
+      </c>
+      <c r="G240" t="s">
         <v>274</v>
-      </c>
-      <c r="D240" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" t="s">
-        <v>532</v>
-      </c>
-      <c r="F240" t="s">
-        <v>533</v>
-      </c>
-      <c r="G240" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F241" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G241" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
       </c>
       <c r="E242" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F242" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G242" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
       </c>
       <c r="E243" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F243" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G243" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
       </c>
       <c r="E244" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F244" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G244" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F245" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G245" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F246" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G246" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F247" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G247" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F248" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G248" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F249" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G249" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D250" t="s">
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F250" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G250" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D251" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E251" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F251" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G251" t="s">
-        <v>276</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D252" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E252" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F252" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G252" t="s">
-        <v>295</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D253" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E253" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F253" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G253" t="s">
-        <v>278</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D254" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E254" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F254" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G254" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D255" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E255" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F255" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G255" t="s">
-        <v>295</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D256" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E256" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F256" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G256" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
       </c>
       <c r="C257" t="s">
+        <v>272</v>
+      </c>
+      <c r="D257" t="s">
+        <v>285</v>
+      </c>
+      <c r="E257" t="s">
+        <v>522</v>
+      </c>
+      <c r="F257" t="s">
+        <v>523</v>
+      </c>
+      <c r="G257" t="s">
         <v>274</v>
-      </c>
-      <c r="D257" t="s">
-        <v>294</v>
-      </c>
-      <c r="E257" t="s">
-        <v>534</v>
-      </c>
-      <c r="F257" t="s">
-        <v>535</v>
-      </c>
-      <c r="G257" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D258" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E258" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F258" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G258" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E259" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F259" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G259" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D260" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E260" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F260" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G260" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D261" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E261" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F261" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G261" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F262" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G262" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D263" t="s">
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F263" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G263" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F264" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G264" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D265" t="s">
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F265" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G265" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
       </c>
       <c r="E266" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F266" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G266" t="s">
         <v>17</v>
@@ -8177,68 +8179,68 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D267" t="s">
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F267" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G267" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D268" t="s">
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F268" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G268" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D269" t="s">
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F269" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G269" t="s">
         <v>30</v>
@@ -8246,91 +8248,91 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D270" t="s">
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G270" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D271" t="s">
         <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G271" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D272" t="s">
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G272" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D273" t="s">
         <v>14</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F273" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G273" t="s">
         <v>545</v>
@@ -8338,600 +8340,600 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D274" t="s">
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G274" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G275" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
       </c>
       <c r="E276" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G276" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
       </c>
       <c r="C277" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G277" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G278" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D279" t="s">
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F279" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G279" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D280" t="s">
         <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G280" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D281" t="s">
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F281" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G281" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
       </c>
       <c r="C282" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
       </c>
       <c r="E282" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G282" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D283" t="s">
         <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F283" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G283" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>298</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" t="s">
+        <v>299</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>530</v>
+      </c>
+      <c r="F284" t="s">
+        <v>531</v>
+      </c>
+      <c r="G284" t="s">
         <v>308</v>
-      </c>
-      <c r="B284" t="s">
-        <v>8</v>
-      </c>
-      <c r="C284" t="s">
-        <v>309</v>
-      </c>
-      <c r="D284" t="s">
-        <v>9</v>
-      </c>
-      <c r="E284" t="s">
-        <v>542</v>
-      </c>
-      <c r="F284" t="s">
-        <v>543</v>
-      </c>
-      <c r="G284" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
       <c r="C285" t="s">
+        <v>299</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>530</v>
+      </c>
+      <c r="F285" t="s">
+        <v>531</v>
+      </c>
+      <c r="G285" t="s">
         <v>309</v>
-      </c>
-      <c r="D285" t="s">
-        <v>9</v>
-      </c>
-      <c r="E285" t="s">
-        <v>542</v>
-      </c>
-      <c r="F285" t="s">
-        <v>543</v>
-      </c>
-      <c r="G285" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D286" t="s">
         <v>9</v>
       </c>
       <c r="E286" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F286" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G286" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D287" t="s">
         <v>9</v>
       </c>
       <c r="E287" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G287" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G288" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D289" t="s">
         <v>9</v>
       </c>
       <c r="E289" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F289" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G289" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D290" t="s">
         <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F290" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G290" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D291" t="s">
         <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F291" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G291" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F292" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G292" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D293" t="s">
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F293" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G293" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F294" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G294" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D295" t="s">
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F295" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G295" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
       </c>
       <c r="C296" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D296" t="s">
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F296" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G296" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D297" t="s">
         <v>9</v>
       </c>
       <c r="E297" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F297" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G297" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D298" t="s">
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F298" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G298" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D299" t="s">
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F299" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G299" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
